--- a/mbs-perturbation/mega/elm/smote/ELM_rbf_linf_smote_results.xlsx
+++ b/mbs-perturbation/mega/elm/smote/ELM_rbf_linf_smote_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.477419261572267</v>
+        <v>0.4668890449438202</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4420159535895577</v>
+        <v>0.4786585365853658</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.480104106419896</v>
+        <v>0.4762780112044818</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4371620443049015</v>
+        <v>0.4727916314454776</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005181347150259068</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01030927835051546</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4576322990044827</v>
+        <v>0.4834437086092715</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001036269430051813</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002061855670103093</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4588667329782209</v>
+        <v>0.4756121865576833</v>
       </c>
     </row>
   </sheetData>
